--- a/biology/Botanique/Château_de_Francs_(Francs)/Château_de_Francs_(Francs).xlsx
+++ b/biology/Botanique/Château_de_Francs_(Francs)/Château_de_Francs_(Francs).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Francs_(Francs)</t>
+          <t>Château_de_Francs_(Francs)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château de Francs est un château situé à Francs (Gironde).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Francs_(Francs)</t>
+          <t>Château_de_Francs_(Francs)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dominant le paysage, le château de Francs date en partie du Moyen Âge. Il est ceint d’un vignoble aujourd’hui totalement restauré. Ce domaine avec 40 hectares de vignes assises sur un terroir argilo-calcaire proche de ce que l’on trouve sur le plateau de Saint-Émilion conduisent deux amis d’enfance à racheter le château.
 Le château de Francs fut une place forte militaire anglo-aquitaine jusqu'en 1453, date de la bataille de Castillon. Seule une partie du château servait d’habitation seigneuriale, le reste étant réservé aux 300 hommes de troupe avec leurs chevaux et équipages. La famille de Ségur qui avait mis son château à la disposition du pouvoir anglo-aquitain, fut contrainte de le vendre quand l’Aquitaine redevint française.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Francs_(Francs)</t>
+          <t>Château_de_Francs_(Francs)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Appellation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Humble perle du Bordelais, les Bordeaux-côtes-de-francs n’en constituent pas moins l’une de ses pierres les plus précieuses. Pour l’instant elle ne brille que pour elle et quelques amateurs avertis, mais son éclat délicat et discret risque bien dans l’avenir d’éclipser des gloires mieux établies. — Jean Paul Kauffmann —  »
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Francs_(Francs)</t>
+          <t>Château_de_Francs_(Francs)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Les vins</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Château de Francs blanc
 Château de Francs rouge
@@ -592,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Francs_(Francs)</t>
+          <t>Château_de_Francs_(Francs)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,7 +628,9 @@
           <t>Homonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Il existe deux châteaux de Francs dans le département de la Gironde : le premier plus ancien en tant que demeure historique sur la commune de Bègles, le second sur la commune de Francs.
 Bertrand de Ségur, propriétaire du château situé à Francs pendant la période anglo-aquitaine, est obligé de le quitter. 
